--- a/biology/Zoologie/Encyocrypta_djiaouma/Encyocrypta_djiaouma.xlsx
+++ b/biology/Zoologie/Encyocrypta_djiaouma/Encyocrypta_djiaouma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Encyocrypta djiaouma est une espèce d'araignées mygalomorphes de la famille des Barychelidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Encyocrypta djiaouma est une espèce d'araignées mygalomorphes de la famille des Barychelidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie[1]. Elle se rencontre sur le mont Djiaouma[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie. Elle se rencontre sur le mont Djiaouma.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 9 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 9 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, le mont Djiaouma.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Raven &amp; Churchill, 1991 : A revision of the mygalomorph spider genus Encyocrypta Simon in New Caledonia (Araneae Barychelidae). Zoologia Neocaledonica, vol. 2, Mémoires du Muséum National d'Histoire Naturelle de Paris, sér. A, vol. 149, p. 31-86.</t>
         </is>
